--- a/src/com/ebank/Keyword/keyword_data.xlsx
+++ b/src/com/ebank/Keyword/keyword_data.xlsx
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -584,7 +584,7 @@
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
